--- a/biology/Médecine/Rétinaculum_des_muscles_extenseurs_du_pied/Rétinaculum_des_muscles_extenseurs_du_pied.xlsx
+++ b/biology/Médecine/Rétinaculum_des_muscles_extenseurs_du_pied/Rétinaculum_des_muscles_extenseurs_du_pied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_extenseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_extenseurs_du_pied</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétinaculum des muscles extenseurs du pied est un ensemble de bandes fibreuses du membre inférieur. Il est situé sur la face antérieure de la cheville et est constitué d'une partie supérieure et d'une partie inférieure : 
 le rétinaculum supérieur des muscles extenseurs du pied,
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_extenseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_extenseurs_du_pied</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétinaculum des muscles extenseurs du pied maintient les tendons des muscles tibial antérieur, long extenseur des orteils et long extenseur de l'hallux contre le squelette tarsien.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_extenseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_extenseurs_du_pied</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Remarque terminologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la littérature, le rétinaculum inférieur des muscles extenseurs du pied est parfois considéré comme un ligament : le ligament bifurqué[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la littérature, le rétinaculum inférieur des muscles extenseurs du pied est parfois considéré comme un ligament : le ligament bifurqué. 
 </t>
         </is>
       </c>
